--- a/framework/result.xlsx
+++ b/framework/result.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\InterfaceTestFramework\framework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -63,35 +67,124 @@
   </si>
   <si>
     <t>http://japi.juhe.cn/qqevaluate/qq</t>
+  </si>
+  <si>
+    <t>CONTE{"key":"8dbee1fcd8627fb6699bce7b986adc45",
+"qq":  "283340479"}</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{"resultcode":"101","reason":"KEY ERROR!","result":[],"error_code":10001}</t>
   </si>
   <si>
     <t>{"key":"8dbee1fcd8627fb6699bce7b986adc45",
 "qq":  "283340479"}</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>合同管理</t>
+  </si>
+  <si>
+    <t>合同台帐</t>
+  </si>
+  <si>
+    <t>添加或更新合同</t>
+  </si>
+  <si>
+    <t>saveOrUpdateContract_001</t>
+  </si>
+  <si>
+    <t>业主添加监理合同</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/contract/saveOrUpdateContract</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>{"r":1,"m":"操作成功","h":False,"d":{}}</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>{'name':'#'}</t>
+  </si>
+  <si>
+    <t>nameOrNumber</t>
+  </si>
+  <si>
+    <t>有效</t>
+  </si>
+  <si>
+    <t>zoujingfeng</t>
+  </si>
+  <si>
+    <t>',
+'simpleName':'求是',
+'address':'竹子林',
+'totalCoveredArea':'',
+'redLineCoveredArea':'',
+'subPackageType':'',
+'isRecord':'',
+'permitNum':'',
+'permitAttachmentId':'',
+'oldMoney':'$$',
+'nowMoney':'$$',
+'signDate':'2017-10-25',
+'startDate':'2017-10-25',
+'endDate':'2017-10-27',
+'contractTime':'7',
+'nowTime':'7',
+'content':'监理合同内容******',
+'scope':'监理合同内容******',
+'originAttachmentId':'',
+'contractAttachmentId':'',
+'bidAttachmentId':'',
+}</t>
+  </si>
+  <si>
+    <t>ASDF的高发发斯蒂芬阿斯蒂芬啥地方</t>
+  </si>
+  <si>
+    <t>发的是否阿斯蒂芬sad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,15 +200,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -403,20 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -473,8 +571,11 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -485,13 +586,105 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="e">
+        <f ca="1">CONCATENATE(S4,TEXT(NOW(),"YYYYMMDDHHMMSS"),T4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="e">
+        <f>CONCATENATE("{
+'generalType':'0',
+'id':'',
+'contractType':'JL',
+'contractTypeDesc':'',
+'companyIdA':'#',
+'companyIdB':'",监理企业ID,"',
+'companyBName':'",监理企业名称,"',
+'zbCompanyName':'',
+'jlCompanyId':'',
+'jlOrgId':'',
+'isAuthority':'1',
+'makerId':'#',
+'organizationIdA':'#',
+'makerOrgId':'#',
+'name':'接口自动化合同$$$$',
+'number':'sign******',
+'organizationName':'求是大厦")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B8" t="str">
+        <f ca="1">CONCATENATE(C8,,TEXT(NOW(),"YYYYMMDDHHMMSS"),D2)</f>
+        <v>ASDF的高发发斯蒂芬阿斯蒂芬啥地方20180415173339CONTE{"key":"8dbee1fcd8627fb6699bce7b986adc45",
+"qq":  "283340479"}</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>